--- a/FreeKaaMaal_Project/Cadbury.xlsx
+++ b/FreeKaaMaal_Project/Cadbury.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E145AE87-EFC7-44F7-AAEE-2173566EA3C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1D34B0-6B26-42CB-A262-F8AA10B18E7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{03A70854-019E-41A6-B57C-3A9AB1FEFA3A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="7">
   <si>
     <t>vojevas277@oniecan.com</t>
   </si>
@@ -33,63 +33,19 @@
     <t>himavey292@huvacliq.com</t>
   </si>
   <si>
-    <t>darihoj547@asoflex.com</t>
-  </si>
-  <si>
-    <t>kagih23992@huvacliq.com</t>
-  </si>
-  <si>
-    <t>wixodo8785@huvacliq.com</t>
-  </si>
-  <si>
-    <t>ORDER NO: 001192802
-Ordered on Wed, 22 Mar 2023
-DELIVERED</t>
-  </si>
-  <si>
-    <t>ORDER NO: 001192805
-Ordered on Wed, 22 Mar 2023
-DELIVERED</t>
-  </si>
-  <si>
-    <t>ORDER NO: 001192811
-Ordered on Wed, 22 Mar 2023
-REFUNDED</t>
-  </si>
-  <si>
-    <t>ORDER NO: 001192820
-Ordered on Wed, 22 Mar 2023
-DELIVERED</t>
-  </si>
-  <si>
-    <t>ORDER NO: 001192841
-Ordered on Wed, 22 Mar 2023
-DELIVERED</t>
-  </si>
-  <si>
-    <t>ORDER NO: 001192844
-Ordered on Wed, 22 Mar 2023
-DELIVERED</t>
-  </si>
-  <si>
-    <t>ORDER NO: 001193099
-Ordered on Thu, 23 Mar 2023
-DELIVERED</t>
-  </si>
-  <si>
-    <t>ORDER NO: 001193102
-Ordered on Thu, 23 Mar 2023
-DELIVERED</t>
-  </si>
-  <si>
-    <t>ORDER NO: 001193105
-Ordered on Thu, 23 Mar 2023
-DELIVERED</t>
-  </si>
-  <si>
-    <t>ORDER NO: 001193120
-Ordered on Thu, 23 Mar 2023
-DELIVERED</t>
+    <t>DELIVERED</t>
+  </si>
+  <si>
+    <t>₹ 4,590</t>
+  </si>
+  <si>
+    <t>₹ 2,295</t>
+  </si>
+  <si>
+    <t>REFUNDED</t>
+  </si>
+  <si>
+    <t>₹ 3,442</t>
   </si>
 </sst>
 </file>
@@ -443,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDBDF728-EA13-4730-8F69-E9F21BC29EFB}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,7 +419,10 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -474,7 +433,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -486,7 +448,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -498,78 +463,21 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1192841</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1192844</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1193099</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
       <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1193102</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1193105</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1193120</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FreeKaaMaal_Project/Cadbury.xlsx
+++ b/FreeKaaMaal_Project/Cadbury.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1D34B0-6B26-42CB-A262-F8AA10B18E7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B122A637-DEB0-40FD-9F66-D3998C06D2E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{03A70854-019E-41A6-B57C-3A9AB1FEFA3A}"/>
   </bookViews>
@@ -25,27 +25,222 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="7">
-  <si>
-    <t>vojevas277@oniecan.com</t>
-  </si>
-  <si>
-    <t>himavey292@huvacliq.com</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="72">
+  <si>
+    <t>nuwayvenu@gmail.com</t>
+  </si>
+  <si>
+    <t>surajjain360@gmail.com</t>
+  </si>
+  <si>
+    <t>k.kems@yahoo.com</t>
+  </si>
+  <si>
+    <t>khalidbabami@gmail.com</t>
+  </si>
+  <si>
+    <t>mr.singh_111@yahoo.in</t>
+  </si>
+  <si>
+    <t>shobhitjain3112@gmail.com</t>
+  </si>
+  <si>
+    <t>nawazsrf5@gmail.com</t>
+  </si>
+  <si>
+    <t>aslamptni@gmail.com</t>
+  </si>
+  <si>
+    <t>arnavsanwariya@gmail.com</t>
+  </si>
+  <si>
+    <t>herolalitsinghania22@gmail.com</t>
+  </si>
+  <si>
+    <t>inderandvets@gmail.com</t>
+  </si>
+  <si>
+    <t>devathi_kiran@yahoo.com</t>
+  </si>
+  <si>
+    <t>hiremathmahantesh98rocketmail@gmail.com</t>
+  </si>
+  <si>
+    <t>geeshanshriwas@gmail.com</t>
+  </si>
+  <si>
+    <t>aayushi15021996agarwal@gmail.com</t>
+  </si>
+  <si>
+    <t>mihirm1@gmail.com</t>
+  </si>
+  <si>
+    <t>prashantsuper77@gmail.com</t>
+  </si>
+  <si>
+    <t>surajmaddheshiya20@gmail.com</t>
+  </si>
+  <si>
+    <t>vinnuheigl@gmail.com</t>
+  </si>
+  <si>
+    <t>suthararjun84@gmail.com</t>
+  </si>
+  <si>
+    <t>psharmaemail@gmail.com</t>
+  </si>
+  <si>
+    <t>anarayanaswami@gmail.com</t>
+  </si>
+  <si>
+    <t>girishkochar@gmail.com</t>
+  </si>
+  <si>
+    <t>coveb.digital@gmail.com</t>
+  </si>
+  <si>
+    <t>das241988@gmail.com</t>
+  </si>
+  <si>
+    <t>bhanumatigouda@gmail.com</t>
+  </si>
+  <si>
+    <t>chiragagarwal866@gmail.com</t>
+  </si>
+  <si>
+    <t>nidhineha205@gmail.com</t>
+  </si>
+  <si>
+    <t>rajhui05@gmail.com</t>
+  </si>
+  <si>
+    <t>poojaiswal66@gmail.com</t>
+  </si>
+  <si>
+    <t>karaningle348@gmail.com</t>
+  </si>
+  <si>
+    <t>karaningle348@gmal.com</t>
+  </si>
+  <si>
+    <t>oswalpiyush10@gmail.com</t>
+  </si>
+  <si>
+    <t>Myproteinrohit@gmail.com</t>
+  </si>
+  <si>
+    <t>sanatyou16@gmail.com</t>
+  </si>
+  <si>
+    <t>samriddhiattri1992@gmail.com</t>
+  </si>
+  <si>
+    <t>vivekkoun7460@gmail.com</t>
+  </si>
+  <si>
+    <t>bhavnasingh24aug@gmail.com</t>
+  </si>
+  <si>
+    <t>Alokpatra1994@gmail.com</t>
+  </si>
+  <si>
+    <t>rahul170890@gmail.com</t>
+  </si>
+  <si>
+    <t>smartrahul8831@gmail.com</t>
+  </si>
+  <si>
+    <t>rajanikm2012@gmail.com</t>
+  </si>
+  <si>
+    <t>heena.chaudhary02@gmail.com</t>
+  </si>
+  <si>
+    <t>nishant.khatri.data@gmail.com</t>
+  </si>
+  <si>
+    <t>ayushraj1033@gmail.com</t>
+  </si>
+  <si>
+    <t>crazyforsuccess15@gmail.com</t>
+  </si>
+  <si>
+    <t>Amit.32033@gmail.com</t>
   </si>
   <si>
     <t>DELIVERED</t>
   </si>
   <si>
-    <t>₹ 4,590</t>
-  </si>
-  <si>
-    <t>₹ 2,295</t>
+    <t>₹ 722</t>
+  </si>
+  <si>
+    <t>₹ 765</t>
+  </si>
+  <si>
+    <t>₹ 1,080</t>
+  </si>
+  <si>
+    <t>₹ 720</t>
+  </si>
+  <si>
+    <t>READY TO SHIP</t>
+  </si>
+  <si>
+    <t>₹ 585</t>
+  </si>
+  <si>
+    <t>₹ 680</t>
+  </si>
+  <si>
+    <t>₹ 425</t>
+  </si>
+  <si>
+    <t>₹ 4,792</t>
+  </si>
+  <si>
+    <t>₹ 1,479</t>
+  </si>
+  <si>
+    <t>₹ 562</t>
   </si>
   <si>
     <t>REFUNDED</t>
   </si>
   <si>
-    <t>₹ 3,442</t>
+    <t>₹ 637</t>
+  </si>
+  <si>
+    <t>₹ 825</t>
+  </si>
+  <si>
+    <t>₹ 525</t>
+  </si>
+  <si>
+    <t>₹ 675</t>
+  </si>
+  <si>
+    <t>₹ 1,275</t>
+  </si>
+  <si>
+    <t>₹ 1,537</t>
+  </si>
+  <si>
+    <t>₹ 701</t>
+  </si>
+  <si>
+    <t>₹ 787</t>
+  </si>
+  <si>
+    <t>₹ 900</t>
+  </si>
+  <si>
+    <t>₹ 375</t>
+  </si>
+  <si>
+    <t>₹ 3,825</t>
+  </si>
+  <si>
+    <t>₹ 967</t>
   </si>
 </sst>
 </file>
@@ -53,10 +248,24 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -70,7 +279,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -78,15 +287,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -399,85 +637,907 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDBDF728-EA13-4730-8F69-E9F21BC29EFB}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="27.140625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.7109375"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="30.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1192802</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3">
+        <v>1280503</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1280512</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>1280524</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>1280587</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>1280635</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>1280917</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1192805</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>1281328</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>1281331</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>1281361</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1192811</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>1281799</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>1282408</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1192820</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F7" s="1"/>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>1282462</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>1282855</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>1282888</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>1283476</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>1283626</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>1283704</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>1283902</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>1284079</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>1284142</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>1284157</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>1284454</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>1284613</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>1285015</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>1285201</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>1285426</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>1285420</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>1285453</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>1285528</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>1285534</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>1285702</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>1285747</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>1285858</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>1285870</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>1285873</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>1285930</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>1285936</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>1286146</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>1286161</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>1286302</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>1286491</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>1286692</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>1286767</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>1286908</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>1286941</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>1286947</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>1286974</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>1287157</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>1287196</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+    </row>
+    <row r="61" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+    </row>
+    <row r="62" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+    </row>
+    <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+    </row>
+    <row r="64" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+    </row>
+    <row r="65" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+    </row>
+    <row r="66" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+    </row>
+    <row r="67" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+    </row>
+    <row r="68" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+    </row>
+    <row r="69" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+    </row>
+    <row r="70" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+    </row>
+    <row r="71" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+    </row>
+    <row r="72" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+    </row>
+    <row r="73" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+    </row>
+    <row r="74" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+    </row>
+    <row r="75" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+    </row>
+    <row r="76" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+    </row>
+    <row r="77" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+    </row>
+    <row r="78" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+    </row>
+    <row r="79" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+    </row>
+    <row r="80" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+    </row>
+    <row r="81" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+    </row>
+    <row r="82" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+    </row>
+    <row r="83" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="2"/>
+    </row>
+    <row r="84" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="2"/>
+    </row>
+    <row r="85" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="2"/>
+    </row>
+    <row r="86" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="2"/>
+    </row>
+    <row r="87" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="2"/>
+    </row>
+    <row r="88" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="2"/>
+    </row>
+    <row r="89" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="2"/>
+    </row>
+    <row r="90" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="2"/>
+    </row>
+    <row r="91" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="2"/>
+    </row>
+    <row r="92" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="2"/>
+    </row>
+    <row r="93" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="2"/>
+    </row>
+    <row r="94" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="2"/>
+    </row>
+    <row r="95" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="2"/>
+    </row>
+    <row r="96" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="2"/>
+    </row>
+    <row r="97" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="2"/>
+    </row>
+    <row r="98" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="2"/>
+    </row>
+    <row r="99" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="2"/>
+    </row>
+    <row r="100" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="2"/>
+    </row>
+    <row r="101" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="2"/>
+    </row>
+    <row r="102" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="2"/>
+    </row>
+    <row r="103" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="2"/>
+    </row>
+    <row r="104" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="2"/>
+    </row>
+    <row r="105" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="2"/>
+    </row>
+    <row r="106" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="2"/>
+    </row>
+    <row r="107" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="2"/>
+    </row>
+    <row r="108" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="2"/>
+    </row>
+    <row r="109" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="2"/>
+    </row>
+    <row r="110" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="2"/>
+    </row>
+    <row r="111" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="2"/>
+    </row>
+    <row r="112" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
